--- a/chiaTask/ChiaTaskFiverr.xlsx
+++ b/chiaTask/ChiaTaskFiverr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miatran/Desktop/code/duAnFiverr/FIVERR-CS/chiaTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69079E-FA59-B74A-BB50-2385F2CA3FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FDCD9-0FF9-9D40-9070-B32E44EFA59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1200" windowWidth="28400" windowHeight="16120" xr2:uid="{0A4A6CB5-424B-7448-A2C7-558E23B02EB9}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="28400" windowHeight="16120" xr2:uid="{0A4A6CB5-424B-7448-A2C7-558E23B02EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -54,13 +54,25 @@
   </si>
   <si>
     <t>Phần 3: Xây dựng trang đăng nhập, trang Admin</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tống Duy Phong</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Hiếu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hoàng Đắc Thắng </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,8 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF85FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -116,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,10 +159,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -145,6 +177,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF85FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -453,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F70109-E40E-F742-A767-98CB20D97626}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,10 +502,11 @@
     <col min="2" max="2" width="29" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.83203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -481,47 +519,59 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>44845</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>44573</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>1</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>44845</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>44573</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>44845</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>44573</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
